--- a/biology/Zoologie/Elaenia/Elaenia.xlsx
+++ b/biology/Zoologie/Elaenia/Elaenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaenia est un genre d'oiseaux sud-américains de la famille des Tyrannidés. La nomenclature aviaire en langue française donne à ces oiseaux le nom normalisé d'Élénie (ou d'Élaène, moins utilisé).
 </t>
@@ -511,11 +523,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Suivant, entre autres, les travaux de Rheindt et al., les espèces Elaenia chilensis et Elaenia olivina sont séparées respectivement de Elaenia albiceps et Elaenia pallatangae, et considérées comme des espèces à part entière depuis la classification de référence (version 3.4, 2013) du Congrès ornithologique international.
-Liste d'espèces
-D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant, entre autres, les travaux de Rheindt et al., les espèces Elaenia chilensis et Elaenia olivina sont séparées respectivement de Elaenia albiceps et Elaenia pallatangae, et considérées comme des espèces à part entière depuis la classification de référence (version 3.4, 2013) du Congrès ornithologique international.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elaenia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elaenia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
 Elaenia flavogaster (Thunberg, 1822) – Élénie à ventre jaune
 Elaenia martinica (Linnaeus, 1766) – Élénie siffleuse
 Elaenia spectabilis Pelzeln, 1868 – Élénie remarquable
